--- a/UserGrades.xlsx
+++ b/UserGrades.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>شماره دانشجویی</t>
   </si>
@@ -26,13 +26,22 @@
     <t>نمره</t>
   </si>
   <si>
-    <t>9812762543</t>
+    <t>5678</t>
   </si>
   <si>
-    <t>سجاد</t>
+    <t>test2</t>
   </si>
   <si>
-    <t>شفاف</t>
+    <t>testL2</t>
+  </si>
+  <si>
+    <t>9043</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>testL4</t>
   </si>
   <si>
     <t>9822762288</t>
@@ -86,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -117,7 +126,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -131,7 +140,21 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
